--- a/biology/Origine et évolution du vivant/Francisation_des_termes_en_latin_scientifique/Francisation_des_termes_en_latin_scientifique.xlsx
+++ b/biology/Origine et évolution du vivant/Francisation_des_termes_en_latin_scientifique/Francisation_des_termes_en_latin_scientifique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nomenclature des sciences du vivant est établie en latin. Les noms binominaux (genre, espèce) sont au nominatif singulier alors que les taxons supérieurs (tribus, familles, ordres, classes, etc.) sont au pluriel.
 La langue française, fille du latin, est particulièrement bien placée pour s’approprier ces termes de la hiérarchie taxinomique. Leur francisation est conforme à l'usage retenu pour les emprunts modernes au latin. Les  flexions suivent, avec quelques méprises, les règles qui ont régi la formation de la langue française à partir de l'accusatif. Les radicaux sont en revanche plus fidèles au latin. On note aussi quelques transcriptions phonétiques de la prononciation du mot latin au nominatif pluriel. Le tableau ci-après distingue donc les correspondances latin-français selon qu'elles sont étymologiques ou phonétiques.
@@ -512,7 +524,9 @@
           <t>Tableau des correspondances</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">* irrégulier
 </t>
